--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3C025B76-B39C-4DF1-9310-36789534370E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED0B2FD-9904-4BAD-957E-7E201C3CF8C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="0" windowWidth="40200" windowHeight="21000" activeTab="1"/>
-    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="22440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-28800" yWindow="3045" windowWidth="8850" windowHeight="15600" activeTab="2" xr2:uid="{84ED84F7-1392-48EC-BACF-0539738A50FF}"/>
+    <workbookView xWindow="-21630" yWindow="5820" windowWidth="22440" windowHeight="15600" activeTab="2" xr2:uid="{2BEAA6E9-3B8B-49C6-A6D6-063CB2B75F49}"/>
+    <workbookView xWindow="-19920" yWindow="3045" windowWidth="11010" windowHeight="15600" activeTab="2" xr2:uid="{B8CBD172-DC87-4A32-BE1B-6B7A6C48C621}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
     <sheet name="Open Coding" sheetId="3" r:id="rId2"/>
     <sheet name="Codes" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -37,30 +49,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="702">
   <si>
     <t>Would you consider yourself tech-literate (i.e. comfortable using technology and understanding technical terms such as IP address)?</t>
   </si>
@@ -1970,9 +1968,6 @@
     <t>Misunderstood device number increase - thought safety</t>
   </si>
   <si>
-    <t>Wants help info</t>
-  </si>
-  <si>
     <t>O49</t>
   </si>
   <si>
@@ -1991,9 +1986,6 @@
     <t>No change wanted to app</t>
   </si>
   <si>
-    <t>Add warning that you can't connect to not selected device</t>
-  </si>
-  <si>
     <t>Info on data export</t>
   </si>
   <si>
@@ -2070,12 +2062,126 @@
   </si>
   <si>
     <t>User wouldn't frequently open app / add notifications</t>
+  </si>
+  <si>
+    <t>O49,O58</t>
+  </si>
+  <si>
+    <t>Device distracting / annoying</t>
+  </si>
+  <si>
+    <t>Design for sensitivity to lights</t>
+  </si>
+  <si>
+    <t>O60,O61</t>
+  </si>
+  <si>
+    <t>Wants help info / tutorial</t>
+  </si>
+  <si>
+    <t>Add a dark mode</t>
+  </si>
+  <si>
+    <t>Increase component size</t>
+  </si>
+  <si>
+    <t>O65</t>
+  </si>
+  <si>
+    <t>O66</t>
+  </si>
+  <si>
+    <t>O67</t>
+  </si>
+  <si>
+    <t>O68</t>
+  </si>
+  <si>
+    <t>O69</t>
+  </si>
+  <si>
+    <t>Misunderstood connected icons but wanted connected indicator</t>
+  </si>
+  <si>
+    <t>Problem with colour / text contrast</t>
+  </si>
+  <si>
+    <t>O50,O66</t>
+  </si>
+  <si>
+    <t>Add audio feedback</t>
+  </si>
+  <si>
+    <t>O62,O68</t>
+  </si>
+  <si>
+    <t>Allow configuring export location</t>
+  </si>
+  <si>
+    <t>O70</t>
+  </si>
+  <si>
+    <t>O71</t>
+  </si>
+  <si>
+    <t>O72</t>
+  </si>
+  <si>
+    <t>O73</t>
+  </si>
+  <si>
+    <t>O74</t>
+  </si>
+  <si>
+    <t>O75</t>
+  </si>
+  <si>
+    <t>O76</t>
+  </si>
+  <si>
+    <t>O77</t>
+  </si>
+  <si>
+    <t>O78</t>
+  </si>
+  <si>
+    <t>O79</t>
+  </si>
+  <si>
+    <t>Add warning / feedback that you can't connect to not selected device</t>
+  </si>
+  <si>
+    <t>Disable rather than hide</t>
+  </si>
+  <si>
+    <t>Easy to understand bar chart</t>
+  </si>
+  <si>
+    <t>Likes red as danger colour</t>
+  </si>
+  <si>
+    <t>Colour on device</t>
+  </si>
+  <si>
+    <t>Initially close to understanding device alert</t>
+  </si>
+  <si>
+    <t>Close to understanding device alert</t>
+  </si>
+  <si>
+    <t>Add another error / waiting message</t>
+  </si>
+  <si>
+    <t>Dislikes word interaction</t>
+  </si>
+  <si>
+    <t>Clear design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2630,61 +2736,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2981,13 +3032,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6599,13 +6650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6736,6 +6789,66 @@
       <c r="E3" t="s">
         <v>537</v>
       </c>
+      <c r="F3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J3" t="s">
+        <v>540</v>
+      </c>
+      <c r="K3" t="s">
+        <v>540</v>
+      </c>
+      <c r="L3" t="s">
+        <v>540</v>
+      </c>
+      <c r="M3" t="s">
+        <v>540</v>
+      </c>
+      <c r="N3" t="s">
+        <v>540</v>
+      </c>
+      <c r="O3" t="s">
+        <v>540</v>
+      </c>
+      <c r="P3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>540</v>
+      </c>
+      <c r="R3" t="s">
+        <v>537</v>
+      </c>
+      <c r="S3" t="s">
+        <v>537</v>
+      </c>
+      <c r="T3" t="s">
+        <v>537</v>
+      </c>
+      <c r="U3" t="s">
+        <v>537</v>
+      </c>
+      <c r="V3" t="s">
+        <v>540</v>
+      </c>
+      <c r="W3" t="s">
+        <v>540</v>
+      </c>
+      <c r="X3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6753,6 +6866,66 @@
       <c r="E4" t="s">
         <v>543</v>
       </c>
+      <c r="F4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" t="s">
+        <v>542</v>
+      </c>
+      <c r="I4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" t="s">
+        <v>542</v>
+      </c>
+      <c r="K4" t="s">
+        <v>542</v>
+      </c>
+      <c r="L4" t="s">
+        <v>543</v>
+      </c>
+      <c r="M4" t="s">
+        <v>543</v>
+      </c>
+      <c r="N4" t="s">
+        <v>542</v>
+      </c>
+      <c r="O4" t="s">
+        <v>542</v>
+      </c>
+      <c r="P4" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>542</v>
+      </c>
+      <c r="R4" t="s">
+        <v>543</v>
+      </c>
+      <c r="S4" t="s">
+        <v>542</v>
+      </c>
+      <c r="T4" t="s">
+        <v>543</v>
+      </c>
+      <c r="U4" t="s">
+        <v>542</v>
+      </c>
+      <c r="V4" t="s">
+        <v>542</v>
+      </c>
+      <c r="W4" t="s">
+        <v>543</v>
+      </c>
+      <c r="X4" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6768,6 +6941,66 @@
         <v>545</v>
       </c>
       <c r="E5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G5" t="s">
+        <v>545</v>
+      </c>
+      <c r="H5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I5" t="s">
+        <v>546</v>
+      </c>
+      <c r="J5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L5" t="s">
+        <v>546</v>
+      </c>
+      <c r="M5" t="s">
+        <v>546</v>
+      </c>
+      <c r="N5" t="s">
+        <v>545</v>
+      </c>
+      <c r="O5" t="s">
+        <v>545</v>
+      </c>
+      <c r="P5" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>545</v>
+      </c>
+      <c r="R5" t="s">
+        <v>545</v>
+      </c>
+      <c r="S5" t="s">
+        <v>545</v>
+      </c>
+      <c r="T5" t="s">
+        <v>546</v>
+      </c>
+      <c r="U5" t="s">
+        <v>545</v>
+      </c>
+      <c r="V5" t="s">
+        <v>545</v>
+      </c>
+      <c r="W5" t="s">
+        <v>546</v>
+      </c>
+      <c r="X5" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y5" t="s">
         <v>546</v>
       </c>
     </row>
@@ -6816,6 +7049,66 @@
       <c r="E7" t="s">
         <v>547</v>
       </c>
+      <c r="F7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" t="s">
+        <v>548</v>
+      </c>
+      <c r="I7" t="s">
+        <v>547</v>
+      </c>
+      <c r="J7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N7" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>547</v>
+      </c>
+      <c r="R7" t="s">
+        <v>548</v>
+      </c>
+      <c r="S7" t="s">
+        <v>547</v>
+      </c>
+      <c r="T7" t="s">
+        <v>547</v>
+      </c>
+      <c r="U7" t="s">
+        <v>549</v>
+      </c>
+      <c r="V7" t="s">
+        <v>549</v>
+      </c>
+      <c r="W7" t="s">
+        <v>548</v>
+      </c>
+      <c r="X7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6856,6 +7149,24 @@
       <c r="C9" t="s">
         <v>586</v>
       </c>
+      <c r="G9" t="s">
+        <v>550</v>
+      </c>
+      <c r="J9" t="s">
+        <v>658</v>
+      </c>
+      <c r="K9" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>586</v>
+      </c>
+      <c r="T9" t="s">
+        <v>671</v>
+      </c>
+      <c r="V9" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7039,10 +7350,19 @@
         <v>603</v>
       </c>
       <c r="C16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E16" t="s">
-        <v>650</v>
+        <v>648</v>
+      </c>
+      <c r="F16" t="s">
+        <v>587</v>
+      </c>
+      <c r="K16" t="s">
+        <v>587</v>
+      </c>
+      <c r="X16" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7090,6 +7410,66 @@
       <c r="E18" t="s">
         <v>554</v>
       </c>
+      <c r="F18" t="s">
+        <v>553</v>
+      </c>
+      <c r="G18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H18" t="s">
+        <v>553</v>
+      </c>
+      <c r="I18" t="s">
+        <v>554</v>
+      </c>
+      <c r="J18" t="s">
+        <v>554</v>
+      </c>
+      <c r="K18" t="s">
+        <v>553</v>
+      </c>
+      <c r="L18" t="s">
+        <v>553</v>
+      </c>
+      <c r="M18" t="s">
+        <v>553</v>
+      </c>
+      <c r="N18" t="s">
+        <v>554</v>
+      </c>
+      <c r="O18" t="s">
+        <v>553</v>
+      </c>
+      <c r="P18" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>554</v>
+      </c>
+      <c r="R18" t="s">
+        <v>554</v>
+      </c>
+      <c r="S18" t="s">
+        <v>553</v>
+      </c>
+      <c r="T18" t="s">
+        <v>553</v>
+      </c>
+      <c r="U18" t="s">
+        <v>554</v>
+      </c>
+      <c r="V18" t="s">
+        <v>553</v>
+      </c>
+      <c r="W18" t="s">
+        <v>554</v>
+      </c>
+      <c r="X18" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -7133,6 +7513,15 @@
       <c r="E20" t="s">
         <v>555</v>
       </c>
+      <c r="J20" t="s">
+        <v>659</v>
+      </c>
+      <c r="K20" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -7208,6 +7597,60 @@
       <c r="E23" t="s">
         <v>556</v>
       </c>
+      <c r="F23" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I23" t="s">
+        <v>556</v>
+      </c>
+      <c r="J23" t="s">
+        <v>556</v>
+      </c>
+      <c r="K23" t="s">
+        <v>556</v>
+      </c>
+      <c r="L23" t="s">
+        <v>556</v>
+      </c>
+      <c r="M23" t="s">
+        <v>557</v>
+      </c>
+      <c r="O23" t="s">
+        <v>556</v>
+      </c>
+      <c r="P23" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>557</v>
+      </c>
+      <c r="R23" t="s">
+        <v>556</v>
+      </c>
+      <c r="S23" t="s">
+        <v>557</v>
+      </c>
+      <c r="T23" t="s">
+        <v>556</v>
+      </c>
+      <c r="V23" t="s">
+        <v>556</v>
+      </c>
+      <c r="W23" t="s">
+        <v>557</v>
+      </c>
+      <c r="X23" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -7225,6 +7668,66 @@
       <c r="E24" t="s">
         <v>558</v>
       </c>
+      <c r="F24" t="s">
+        <v>558</v>
+      </c>
+      <c r="G24" t="s">
+        <v>558</v>
+      </c>
+      <c r="H24" t="s">
+        <v>558</v>
+      </c>
+      <c r="I24" t="s">
+        <v>558</v>
+      </c>
+      <c r="J24" t="s">
+        <v>558</v>
+      </c>
+      <c r="K24" t="s">
+        <v>558</v>
+      </c>
+      <c r="L24" t="s">
+        <v>558</v>
+      </c>
+      <c r="M24" t="s">
+        <v>558</v>
+      </c>
+      <c r="N24" t="s">
+        <v>558</v>
+      </c>
+      <c r="O24" t="s">
+        <v>558</v>
+      </c>
+      <c r="P24" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>558</v>
+      </c>
+      <c r="R24" t="s">
+        <v>558</v>
+      </c>
+      <c r="S24" t="s">
+        <v>558</v>
+      </c>
+      <c r="T24" t="s">
+        <v>558</v>
+      </c>
+      <c r="U24" t="s">
+        <v>558</v>
+      </c>
+      <c r="V24" t="s">
+        <v>558</v>
+      </c>
+      <c r="W24" t="s">
+        <v>558</v>
+      </c>
+      <c r="X24" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -7240,6 +7743,66 @@
         <v>560</v>
       </c>
       <c r="E25" t="s">
+        <v>560</v>
+      </c>
+      <c r="F25" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" t="s">
+        <v>560</v>
+      </c>
+      <c r="H25" t="s">
+        <v>560</v>
+      </c>
+      <c r="I25" t="s">
+        <v>560</v>
+      </c>
+      <c r="J25" t="s">
+        <v>560</v>
+      </c>
+      <c r="K25" t="s">
+        <v>560</v>
+      </c>
+      <c r="L25" t="s">
+        <v>560</v>
+      </c>
+      <c r="M25" t="s">
+        <v>560</v>
+      </c>
+      <c r="N25" t="s">
+        <v>560</v>
+      </c>
+      <c r="O25" t="s">
+        <v>560</v>
+      </c>
+      <c r="P25" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>560</v>
+      </c>
+      <c r="R25" t="s">
+        <v>560</v>
+      </c>
+      <c r="S25" t="s">
+        <v>560</v>
+      </c>
+      <c r="T25" t="s">
+        <v>560</v>
+      </c>
+      <c r="U25" t="s">
+        <v>560</v>
+      </c>
+      <c r="V25" t="s">
+        <v>560</v>
+      </c>
+      <c r="W25" t="s">
+        <v>561</v>
+      </c>
+      <c r="X25" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y25" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7309,10 +7872,28 @@
         <v>562</v>
       </c>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E28" t="s">
-        <v>655</v>
+        <v>653</v>
+      </c>
+      <c r="F28" t="s">
+        <v>664</v>
+      </c>
+      <c r="G28" t="s">
+        <v>551</v>
+      </c>
+      <c r="J28" t="s">
+        <v>551</v>
+      </c>
+      <c r="R28" t="s">
+        <v>682</v>
+      </c>
+      <c r="X28" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -7468,10 +8049,22 @@
         <v>563</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E34" t="s">
-        <v>656</v>
+        <v>654</v>
+      </c>
+      <c r="F34" t="s">
+        <v>633</v>
+      </c>
+      <c r="G34" t="s">
+        <v>563</v>
+      </c>
+      <c r="J34" t="s">
+        <v>658</v>
+      </c>
+      <c r="K34" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -7519,6 +8112,66 @@
       <c r="E36" t="s">
         <v>564</v>
       </c>
+      <c r="F36" t="s">
+        <v>564</v>
+      </c>
+      <c r="G36" t="s">
+        <v>564</v>
+      </c>
+      <c r="H36" t="s">
+        <v>564</v>
+      </c>
+      <c r="I36" t="s">
+        <v>564</v>
+      </c>
+      <c r="J36" t="s">
+        <v>564</v>
+      </c>
+      <c r="K36" t="s">
+        <v>564</v>
+      </c>
+      <c r="L36" t="s">
+        <v>564</v>
+      </c>
+      <c r="M36" t="s">
+        <v>564</v>
+      </c>
+      <c r="N36" t="s">
+        <v>564</v>
+      </c>
+      <c r="O36" t="s">
+        <v>564</v>
+      </c>
+      <c r="P36" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>564</v>
+      </c>
+      <c r="R36" t="s">
+        <v>564</v>
+      </c>
+      <c r="S36" t="s">
+        <v>564</v>
+      </c>
+      <c r="T36" t="s">
+        <v>564</v>
+      </c>
+      <c r="U36" t="s">
+        <v>564</v>
+      </c>
+      <c r="V36" t="s">
+        <v>564</v>
+      </c>
+      <c r="W36" t="s">
+        <v>565</v>
+      </c>
+      <c r="X36" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -7536,6 +8189,66 @@
       <c r="E37" t="s">
         <v>566</v>
       </c>
+      <c r="F37" t="s">
+        <v>566</v>
+      </c>
+      <c r="G37" t="s">
+        <v>566</v>
+      </c>
+      <c r="H37" t="s">
+        <v>566</v>
+      </c>
+      <c r="I37" t="s">
+        <v>566</v>
+      </c>
+      <c r="J37" t="s">
+        <v>566</v>
+      </c>
+      <c r="K37" t="s">
+        <v>566</v>
+      </c>
+      <c r="L37" t="s">
+        <v>566</v>
+      </c>
+      <c r="M37" t="s">
+        <v>566</v>
+      </c>
+      <c r="N37" t="s">
+        <v>566</v>
+      </c>
+      <c r="O37" t="s">
+        <v>566</v>
+      </c>
+      <c r="P37" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>567</v>
+      </c>
+      <c r="R37" t="s">
+        <v>566</v>
+      </c>
+      <c r="S37" t="s">
+        <v>566</v>
+      </c>
+      <c r="T37" t="s">
+        <v>566</v>
+      </c>
+      <c r="U37" t="s">
+        <v>567</v>
+      </c>
+      <c r="V37" t="s">
+        <v>566</v>
+      </c>
+      <c r="W37" t="s">
+        <v>567</v>
+      </c>
+      <c r="X37" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -7551,6 +8264,66 @@
         <v>568</v>
       </c>
       <c r="E38" t="s">
+        <v>568</v>
+      </c>
+      <c r="F38" t="s">
+        <v>568</v>
+      </c>
+      <c r="G38" t="s">
+        <v>568</v>
+      </c>
+      <c r="H38" t="s">
+        <v>568</v>
+      </c>
+      <c r="I38" t="s">
+        <v>569</v>
+      </c>
+      <c r="J38" t="s">
+        <v>569</v>
+      </c>
+      <c r="K38" t="s">
+        <v>568</v>
+      </c>
+      <c r="L38" t="s">
+        <v>568</v>
+      </c>
+      <c r="M38" t="s">
+        <v>568</v>
+      </c>
+      <c r="N38" t="s">
+        <v>568</v>
+      </c>
+      <c r="O38" t="s">
+        <v>568</v>
+      </c>
+      <c r="P38" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>568</v>
+      </c>
+      <c r="R38" t="s">
+        <v>569</v>
+      </c>
+      <c r="S38" t="s">
+        <v>568</v>
+      </c>
+      <c r="T38" t="s">
+        <v>568</v>
+      </c>
+      <c r="U38" t="s">
+        <v>569</v>
+      </c>
+      <c r="V38" t="s">
+        <v>569</v>
+      </c>
+      <c r="W38" t="s">
+        <v>569</v>
+      </c>
+      <c r="X38" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y38" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7647,14 +8420,16 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>569</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -7665,7 +8440,9 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="R42" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -7690,6 +8467,66 @@
       <c r="E43" t="s">
         <v>571</v>
       </c>
+      <c r="F43" t="s">
+        <v>571</v>
+      </c>
+      <c r="G43" t="s">
+        <v>570</v>
+      </c>
+      <c r="H43" t="s">
+        <v>571</v>
+      </c>
+      <c r="I43" t="s">
+        <v>570</v>
+      </c>
+      <c r="J43" t="s">
+        <v>570</v>
+      </c>
+      <c r="K43" t="s">
+        <v>571</v>
+      </c>
+      <c r="L43" t="s">
+        <v>571</v>
+      </c>
+      <c r="M43" t="s">
+        <v>570</v>
+      </c>
+      <c r="N43" t="s">
+        <v>571</v>
+      </c>
+      <c r="O43" t="s">
+        <v>571</v>
+      </c>
+      <c r="P43" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>571</v>
+      </c>
+      <c r="R43" t="s">
+        <v>571</v>
+      </c>
+      <c r="S43" t="s">
+        <v>685</v>
+      </c>
+      <c r="T43" t="s">
+        <v>571</v>
+      </c>
+      <c r="U43" t="s">
+        <v>571</v>
+      </c>
+      <c r="V43" t="s">
+        <v>571</v>
+      </c>
+      <c r="W43" t="s">
+        <v>571</v>
+      </c>
+      <c r="X43" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -7707,6 +8544,66 @@
       <c r="E44" t="s">
         <v>574</v>
       </c>
+      <c r="F44" t="s">
+        <v>574</v>
+      </c>
+      <c r="G44" t="s">
+        <v>574</v>
+      </c>
+      <c r="H44" t="s">
+        <v>574</v>
+      </c>
+      <c r="I44" t="s">
+        <v>574</v>
+      </c>
+      <c r="J44" t="s">
+        <v>574</v>
+      </c>
+      <c r="K44" t="s">
+        <v>574</v>
+      </c>
+      <c r="L44" t="s">
+        <v>574</v>
+      </c>
+      <c r="M44" t="s">
+        <v>574</v>
+      </c>
+      <c r="N44" t="s">
+        <v>574</v>
+      </c>
+      <c r="O44" t="s">
+        <v>574</v>
+      </c>
+      <c r="P44" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>574</v>
+      </c>
+      <c r="R44" t="s">
+        <v>574</v>
+      </c>
+      <c r="S44" t="s">
+        <v>686</v>
+      </c>
+      <c r="T44" t="s">
+        <v>574</v>
+      </c>
+      <c r="U44" t="s">
+        <v>574</v>
+      </c>
+      <c r="V44" t="s">
+        <v>574</v>
+      </c>
+      <c r="W44" t="s">
+        <v>574</v>
+      </c>
+      <c r="X44" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -7716,13 +8613,73 @@
         <v>577</v>
       </c>
       <c r="C45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D45" t="s">
         <v>576</v>
       </c>
       <c r="E45" t="s">
-        <v>646</v>
+        <v>644</v>
+      </c>
+      <c r="F45" t="s">
+        <v>576</v>
+      </c>
+      <c r="G45" t="s">
+        <v>635</v>
+      </c>
+      <c r="H45" t="s">
+        <v>635</v>
+      </c>
+      <c r="I45" t="s">
+        <v>644</v>
+      </c>
+      <c r="J45" t="s">
+        <v>576</v>
+      </c>
+      <c r="K45" t="s">
+        <v>644</v>
+      </c>
+      <c r="L45" t="s">
+        <v>635</v>
+      </c>
+      <c r="M45" t="s">
+        <v>576</v>
+      </c>
+      <c r="N45" t="s">
+        <v>577</v>
+      </c>
+      <c r="O45" t="s">
+        <v>635</v>
+      </c>
+      <c r="P45" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>576</v>
+      </c>
+      <c r="R45" t="s">
+        <v>576</v>
+      </c>
+      <c r="S45" t="s">
+        <v>577</v>
+      </c>
+      <c r="T45" t="s">
+        <v>644</v>
+      </c>
+      <c r="U45" t="s">
+        <v>577</v>
+      </c>
+      <c r="V45" t="s">
+        <v>644</v>
+      </c>
+      <c r="W45" t="s">
+        <v>635</v>
+      </c>
+      <c r="X45" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -7741,6 +8698,66 @@
       <c r="E46" t="s">
         <v>578</v>
       </c>
+      <c r="F46" t="s">
+        <v>578</v>
+      </c>
+      <c r="G46" t="s">
+        <v>580</v>
+      </c>
+      <c r="H46" t="s">
+        <v>578</v>
+      </c>
+      <c r="I46" t="s">
+        <v>580</v>
+      </c>
+      <c r="J46" t="s">
+        <v>578</v>
+      </c>
+      <c r="K46" t="s">
+        <v>580</v>
+      </c>
+      <c r="L46" t="s">
+        <v>578</v>
+      </c>
+      <c r="M46" t="s">
+        <v>578</v>
+      </c>
+      <c r="N46" t="s">
+        <v>579</v>
+      </c>
+      <c r="O46" t="s">
+        <v>579</v>
+      </c>
+      <c r="P46" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>578</v>
+      </c>
+      <c r="R46" t="s">
+        <v>580</v>
+      </c>
+      <c r="S46" t="s">
+        <v>579</v>
+      </c>
+      <c r="T46" t="s">
+        <v>580</v>
+      </c>
+      <c r="U46" t="s">
+        <v>579</v>
+      </c>
+      <c r="V46" t="s">
+        <v>578</v>
+      </c>
+      <c r="W46" t="s">
+        <v>579</v>
+      </c>
+      <c r="X46" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -7750,13 +8767,73 @@
         <v>582</v>
       </c>
       <c r="C47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D47" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E47" t="s">
-        <v>647</v>
+        <v>645</v>
+      </c>
+      <c r="F47" t="s">
+        <v>646</v>
+      </c>
+      <c r="G47" t="s">
+        <v>646</v>
+      </c>
+      <c r="H47" t="s">
+        <v>646</v>
+      </c>
+      <c r="I47" t="s">
+        <v>646</v>
+      </c>
+      <c r="J47" t="s">
+        <v>646</v>
+      </c>
+      <c r="K47" t="s">
+        <v>646</v>
+      </c>
+      <c r="L47" t="s">
+        <v>645</v>
+      </c>
+      <c r="M47" t="s">
+        <v>646</v>
+      </c>
+      <c r="N47" t="s">
+        <v>646</v>
+      </c>
+      <c r="O47" t="s">
+        <v>646</v>
+      </c>
+      <c r="P47" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>646</v>
+      </c>
+      <c r="R47" t="s">
+        <v>646</v>
+      </c>
+      <c r="S47" t="s">
+        <v>646</v>
+      </c>
+      <c r="T47" t="s">
+        <v>646</v>
+      </c>
+      <c r="U47" t="s">
+        <v>646</v>
+      </c>
+      <c r="V47" t="s">
+        <v>646</v>
+      </c>
+      <c r="W47" t="s">
+        <v>646</v>
+      </c>
+      <c r="X47" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -7796,10 +8873,46 @@
         <v>583</v>
       </c>
       <c r="C49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E49" t="s">
-        <v>656</v>
+        <v>654</v>
+      </c>
+      <c r="H49" t="s">
+        <v>583</v>
+      </c>
+      <c r="I49" t="s">
+        <v>657</v>
+      </c>
+      <c r="J49" t="s">
+        <v>583</v>
+      </c>
+      <c r="K49" t="s">
+        <v>657</v>
+      </c>
+      <c r="M49" t="s">
+        <v>680</v>
+      </c>
+      <c r="N49" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>671</v>
+      </c>
+      <c r="S49" t="s">
+        <v>583</v>
+      </c>
+      <c r="V49" t="s">
+        <v>687</v>
+      </c>
+      <c r="W49" t="s">
+        <v>584</v>
+      </c>
+      <c r="X49" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -7810,10 +8923,37 @@
         <v>584</v>
       </c>
       <c r="C50" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E50" t="s">
-        <v>649</v>
+        <v>647</v>
+      </c>
+      <c r="G50" t="s">
+        <v>667</v>
+      </c>
+      <c r="L50" t="s">
+        <v>673</v>
+      </c>
+      <c r="N50" t="s">
+        <v>647</v>
+      </c>
+      <c r="P50" t="s">
+        <v>654</v>
+      </c>
+      <c r="R50" t="s">
+        <v>684</v>
+      </c>
+      <c r="S50" t="s">
+        <v>673</v>
+      </c>
+      <c r="V50" t="s">
+        <v>583</v>
+      </c>
+      <c r="W50" t="s">
+        <v>585</v>
+      </c>
+      <c r="X50" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -7836,85 +8976,85 @@
         <f t="array" ref="E51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(E2:E50,E2:E50&lt;&gt;"")))</f>
         <v>O2,O5,O8,O9,O57,O16,O17,O18,O20,O22,O58,O59,O26,O28,O30,O33,O34,O53,O38,O54,O56</v>
       </c>
-      <c r="F51" t="e" cm="1" vm="1">
+      <c r="F51" t="str" cm="1">
         <f t="array" ref="F51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(F2:F50,F2:F50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" t="e" cm="1" vm="1">
+        <v>O2,O4,O7,O9,O47,O15,O18,O20,O22,O49,O58,O50,O26,O28,O30,O33,O34,O36,O38,O55</v>
+      </c>
+      <c r="G51" t="str" cm="1">
         <f t="array" ref="G51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(G2:G50,G2:G50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O11,O12,O15,O18,O20,O22,O13,O25,O26,O28,O30,O31,O32,O34,O52,O40,O55,O60,O61</v>
+      </c>
+      <c r="H51" t="str" cm="1">
         <f t="array" ref="H51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(H2:H50,H2:H50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O55,O43</v>
+      </c>
+      <c r="I51" t="str" cm="1">
         <f t="array" ref="I51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(I2:I50,I2:I50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" t="e" cm="1" vm="1">
+        <v>O2,O5,O8,O9,O16,O18,O20,O22,O26,O28,O31,O32,O34,O53,O40,O55,O62</v>
+      </c>
+      <c r="J51" t="str" cm="1">
         <f t="array" ref="J51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(J2:J50,J2:J50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O9,O63,O16,O64,O18,O20,O22,O13,O26,O28,O31,O32,O34,O36,O38,O55,O43</v>
+      </c>
+      <c r="K51" t="str" cm="1">
         <f t="array" ref="K51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(K2:K50,K2:K50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O9,O65,O47,O15,O43,O18,O20,O22,O50,O66,O26,O28,O30,O33,O34,O53,O40,O55,O62</v>
+      </c>
+      <c r="L51" t="str" cm="1">
         <f t="array" ref="L51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(L2:L50,L2:L50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M51" t="e" cm="1" vm="1">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O54,O67</v>
+      </c>
+      <c r="M51" t="str" cm="1">
         <f t="array" ref="M51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(M2:M50,M2:M50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N51" t="e" cm="1" vm="1">
+        <v>O1,O5,O8,O9,O15,O19,O20,O22,O26,O28,O30,O32,O34,O36,O38,O55,O62,O68</v>
+      </c>
+      <c r="N51" t="str" cm="1">
         <f t="array" ref="N51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(N2:N50,N2:N50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O9,O16,O20,O22,O26,O28,O30,O33,O34,O37,O39,O55,O43,O56</v>
+      </c>
+      <c r="O51" t="str" cm="1">
         <f t="array" ref="O51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(O2:O50,O2:O50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O39,O55</v>
+      </c>
+      <c r="P51" t="str" cm="1">
         <f t="array" ref="P51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(P2:P50,P2:P50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q51" t="e" cm="1" vm="1">
+        <v>O2,O5,O8,O10,O15,O18,O20,O22,O26,O28,O30,O32,O34,O53,O38,O55,O59</v>
+      </c>
+      <c r="Q51" t="str" cm="1">
         <f t="array" ref="Q51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(Q2:Q50,Q2:Q50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O9,O46,O16,O69,O19,O20,O22,O26,O29,O30,O33,O34,O36,O38,O55,O65</v>
+      </c>
+      <c r="R51" t="str" cm="1">
         <f t="array" ref="R51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(R2:R50,R2:R50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S51" t="e" cm="1" vm="1">
+        <v>O2,O5,O7,O10,O16,O18,O20,O22,O70,O26,O28,O31,O71,O33,O34,O36,O40,O55,O72</v>
+      </c>
+      <c r="S51" t="str" cm="1">
         <f t="array" ref="S51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(S2:S50,S2:S50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T51" t="e" cm="1" vm="1">
+        <v>O2,O4,O7,O9,O15,O19,O20,O22,O26,O28,O30,O73,O74,O37,O39,O55,O43,O67</v>
+      </c>
+      <c r="T51" t="str" cm="1">
         <f t="array" ref="T51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(T2:T50,T2:T50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U51" t="e" cm="1" vm="1">
+        <v>O2,O5,O8,O9,O65,O15,O18,O20,O22,O26,O28,O30,O33,O34,O53,O40,O55</v>
+      </c>
+      <c r="U51" t="str" cm="1">
         <f t="array" ref="U51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(U2:U50,U2:U50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V51" t="e" cm="1" vm="1">
+        <v>O2,O4,O7,O11,O16,O20,O22,O26,O29,O31,O33,O34,O37,O39,O55</v>
+      </c>
+      <c r="V51" t="str" cm="1">
         <f t="array" ref="V51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(V2:V50,V2:V50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W51" t="e" cm="1" vm="1">
+        <v>O1,O4,O7,O11,O65,O15,O18,O20,O22,O26,O28,O31,O33,O34,O53,O38,O55,O75,O43</v>
+      </c>
+      <c r="W51" t="str" cm="1">
         <f t="array" ref="W51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(W2:W50,W2:W50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X51" t="e" cm="1" vm="1">
+        <v>O1,O5,O8,O10,O16,O19,O20,O23,O27,O29,O31,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="X51" t="str" cm="1">
         <f t="array" ref="X51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(X2:X50,X2:X50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y51" t="e" cm="1" vm="1">
+        <v>O2,O5,O8,O9,O47,O15,O18,O20,O22,O76,O26,O28,O30,O33,O34,O53,O38,O55,O44,O45</v>
+      </c>
+      <c r="Y51" t="str" cm="1">
         <f t="array" ref="Y51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(Y2:Y50,Y2:Y50&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O76,O26,O28,O30,O32,O34,O53,O38,O54,O44</v>
       </c>
     </row>
   </sheetData>
@@ -7924,20 +9064,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="2">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="3">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8289,7 +9435,7 @@
         <v>583</v>
       </c>
       <c r="B44" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8297,7 +9443,7 @@
         <v>584</v>
       </c>
       <c r="B45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8305,7 +9451,7 @@
         <v>585</v>
       </c>
       <c r="B46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8313,7 +9459,7 @@
         <v>586</v>
       </c>
       <c r="B47" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8321,7 +9467,7 @@
         <v>587</v>
       </c>
       <c r="B48" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8329,120 +9475,246 @@
         <v>588</v>
       </c>
       <c r="B49" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B51" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B52" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B54" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B55" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B57" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B58" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B59" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B60" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>657</v>
+        <v>655</v>
+      </c>
+      <c r="B61" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>658</v>
+        <v>656</v>
+      </c>
+      <c r="B62" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>659</v>
+        <v>657</v>
+      </c>
+      <c r="B63" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="B64" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>661</v>
+        <v>659</v>
+      </c>
+      <c r="B65" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>671</v>
+      </c>
+      <c r="B66" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>672</v>
+      </c>
+      <c r="B67" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>674</v>
+      </c>
+      <c r="B69" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>675</v>
+      </c>
+      <c r="B70" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>682</v>
+      </c>
+      <c r="B71" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>683</v>
+      </c>
+      <c r="B72" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>685</v>
+      </c>
+      <c r="B74" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>686</v>
+      </c>
+      <c r="B75" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>687</v>
+      </c>
+      <c r="B76" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>688</v>
+      </c>
+      <c r="B77" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED0B2FD-9904-4BAD-957E-7E201C3CF8C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF29CBC-8322-4377-ABDF-63CA6D25EE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="22440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
-    <workbookView xWindow="-28800" yWindow="3045" windowWidth="8850" windowHeight="15600" activeTab="2" xr2:uid="{84ED84F7-1392-48EC-BACF-0539738A50FF}"/>
-    <workbookView xWindow="-21630" yWindow="5820" windowWidth="22440" windowHeight="15600" activeTab="2" xr2:uid="{2BEAA6E9-3B8B-49C6-A6D6-063CB2B75F49}"/>
-    <workbookView xWindow="-19920" yWindow="3045" windowWidth="11010" windowHeight="15600" activeTab="2" xr2:uid="{B8CBD172-DC87-4A32-BE1B-6B7A6C48C621}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
     <sheet name="Open Coding" sheetId="3" r:id="rId2"/>
     <sheet name="Codes" sheetId="4" r:id="rId3"/>
+    <sheet name="Full Coding" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="767">
   <si>
     <t>Would you consider yourself tech-literate (i.e. comfortable using technology and understanding technical terms such as IP address)?</t>
   </si>
@@ -2139,15 +2137,6 @@
     <t>O76</t>
   </si>
   <si>
-    <t>O77</t>
-  </si>
-  <si>
-    <t>O78</t>
-  </si>
-  <si>
-    <t>O79</t>
-  </si>
-  <si>
     <t>Add warning / feedback that you can't connect to not selected device</t>
   </si>
   <si>
@@ -2176,6 +2165,210 @@
   </si>
   <si>
     <t>Clear design</t>
+  </si>
+  <si>
+    <t>Axial Code</t>
+  </si>
+  <si>
+    <t>Axial Code Description</t>
+  </si>
+  <si>
+    <t>Codes Contained</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Understanding of concepts</t>
+  </si>
+  <si>
+    <t>Device Suggestions</t>
+  </si>
+  <si>
+    <t>App Suggestions</t>
+  </si>
+  <si>
+    <t>Positive Feedback</t>
+  </si>
+  <si>
+    <t>Negative Feedback</t>
+  </si>
+  <si>
+    <t>Good App Usability Choices</t>
+  </si>
+  <si>
+    <t>Bad App Usability Choices</t>
+  </si>
+  <si>
+    <t>Good Device Usability Choices</t>
+  </si>
+  <si>
+    <t>Bad Device Usability Choices</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Not understanding of concepts</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>O3,O6,O9,O15,O18,O20,O22,O26,O28,O30</t>
+  </si>
+  <si>
+    <t>O32,O34,O36,O38,O41,O73,O74</t>
+  </si>
+  <si>
+    <t>O4,O5,O6,O7,O10,O11,O16,O19,O21,O23,O27,O29,O31,O66</t>
+  </si>
+  <si>
+    <t>O33,O35,O37,O39,O40,O42,O52,O54,O55</t>
+  </si>
+  <si>
+    <t>O2, O13</t>
+  </si>
+  <si>
+    <t>O43,O46,O47,O49,O50,O51,O58,O62,O63,O65,O68,O69</t>
+  </si>
+  <si>
+    <t>O56,O61,O67,O72</t>
+  </si>
+  <si>
+    <t>O24,O25,O44,O45,O48,O64,O70,O71,O76</t>
+  </si>
+  <si>
+    <t>O12,O14,O17,O57,O59,O60,O75</t>
+  </si>
+  <si>
+    <t>Selective Code</t>
+  </si>
+  <si>
+    <t>Selective Code Description</t>
+  </si>
+  <si>
+    <t>Wanting to use this system</t>
+  </si>
+  <si>
+    <t>Not wanting to use this system</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>General Suggestions</t>
+  </si>
+  <si>
+    <t>A1,A3,A5,A9</t>
+  </si>
+  <si>
+    <t>A2,A4,A6,A10</t>
+  </si>
+  <si>
+    <t>A7,A8</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Participant 1</t>
+  </si>
+  <si>
+    <t>Participant 2</t>
+  </si>
+  <si>
+    <t>Participant 3</t>
+  </si>
+  <si>
+    <t>Participant 4</t>
+  </si>
+  <si>
+    <t>Participant 5</t>
+  </si>
+  <si>
+    <t>Participant 6</t>
+  </si>
+  <si>
+    <t>Participant 7</t>
+  </si>
+  <si>
+    <t>Participant 8</t>
+  </si>
+  <si>
+    <t>Participant 9</t>
+  </si>
+  <si>
+    <t>Participant 10</t>
+  </si>
+  <si>
+    <t>Participant 11</t>
+  </si>
+  <si>
+    <t>Participant 12</t>
+  </si>
+  <si>
+    <t>Participant 13</t>
+  </si>
+  <si>
+    <t>Participant 14</t>
+  </si>
+  <si>
+    <t>Participant 15</t>
+  </si>
+  <si>
+    <t>Participant 16</t>
+  </si>
+  <si>
+    <t>Participant 17</t>
+  </si>
+  <si>
+    <t>Participant 18</t>
+  </si>
+  <si>
+    <t>Participant 19</t>
+  </si>
+  <si>
+    <t>Participant 20</t>
+  </si>
+  <si>
+    <t>Participant 21</t>
+  </si>
+  <si>
+    <t>Participant 22</t>
+  </si>
+  <si>
+    <t>Participant 23</t>
+  </si>
+  <si>
+    <t>Participant 24</t>
   </si>
 </sst>
 </file>
@@ -2324,7 +2517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2510,6 +2703,84 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2671,13 +2942,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2725,6 +3009,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC00"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF0099CC"/>
+      <color rgb="FFFF6699"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3036,9 +3332,6 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6653,12 +6946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8875,6 +9165,9 @@
       <c r="C49" t="s">
         <v>632</v>
       </c>
+      <c r="D49" t="s">
+        <v>584</v>
+      </c>
       <c r="E49" t="s">
         <v>654</v>
       </c>
@@ -8896,11 +9189,20 @@
       <c r="N49" t="s">
         <v>583</v>
       </c>
+      <c r="O49" t="s">
+        <v>584</v>
+      </c>
       <c r="Q49" t="s">
         <v>671</v>
       </c>
       <c r="S49" t="s">
         <v>583</v>
+      </c>
+      <c r="T49" t="s">
+        <v>584</v>
+      </c>
+      <c r="U49" t="s">
+        <v>584</v>
       </c>
       <c r="V49" t="s">
         <v>687</v>
@@ -8925,18 +9227,33 @@
       <c r="C50" t="s">
         <v>647</v>
       </c>
+      <c r="D50" t="s">
+        <v>585</v>
+      </c>
       <c r="E50" t="s">
         <v>647</v>
       </c>
       <c r="G50" t="s">
         <v>667</v>
       </c>
+      <c r="H50" t="s">
+        <v>585</v>
+      </c>
+      <c r="K50" t="s">
+        <v>585</v>
+      </c>
       <c r="L50" t="s">
         <v>673</v>
       </c>
+      <c r="M50" t="s">
+        <v>585</v>
+      </c>
       <c r="N50" t="s">
         <v>647</v>
       </c>
+      <c r="O50" t="s">
+        <v>585</v>
+      </c>
       <c r="P50" t="s">
         <v>654</v>
       </c>
@@ -8945,6 +9262,12 @@
       </c>
       <c r="S50" t="s">
         <v>673</v>
+      </c>
+      <c r="T50" t="s">
+        <v>585</v>
+      </c>
+      <c r="U50" t="s">
+        <v>585</v>
       </c>
       <c r="V50" t="s">
         <v>583</v>
@@ -8970,7 +9293,7 @@
       </c>
       <c r="D51" t="str" cm="1">
         <f t="array" ref="D51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(D2:D50,D2:D50&lt;&gt;"")))</f>
-        <v>O2,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O36,O38,O55</v>
+        <v>O2,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O36,O38,O55,O44,O45</v>
       </c>
       <c r="E51" t="str" cm="1">
         <f t="array" ref="E51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(E2:E50,E2:E50&lt;&gt;"")))</f>
@@ -8986,7 +9309,7 @@
       </c>
       <c r="H51" t="str" cm="1">
         <f t="array" ref="H51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(H2:H50,H2:H50&lt;&gt;"")))</f>
-        <v>O1,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O55,O43</v>
+        <v>O1,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O55,O43,O45</v>
       </c>
       <c r="I51" t="str" cm="1">
         <f t="array" ref="I51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(I2:I50,I2:I50&lt;&gt;"")))</f>
@@ -8998,7 +9321,7 @@
       </c>
       <c r="K51" t="str" cm="1">
         <f t="array" ref="K51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(K2:K50,K2:K50&lt;&gt;"")))</f>
-        <v>O1,O4,O7,O9,O65,O47,O15,O43,O18,O20,O22,O50,O66,O26,O28,O30,O33,O34,O53,O40,O55,O62</v>
+        <v>O1,O4,O7,O9,O65,O47,O15,O43,O18,O20,O22,O50,O66,O26,O28,O30,O33,O34,O53,O40,O55,O62,O45</v>
       </c>
       <c r="L51" t="str" cm="1">
         <f t="array" ref="L51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(L2:L50,L2:L50&lt;&gt;"")))</f>
@@ -9006,7 +9329,7 @@
       </c>
       <c r="M51" t="str" cm="1">
         <f t="array" ref="M51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(M2:M50,M2:M50&lt;&gt;"")))</f>
-        <v>O1,O5,O8,O9,O15,O19,O20,O22,O26,O28,O30,O32,O34,O36,O38,O55,O62,O68</v>
+        <v>O1,O5,O8,O9,O15,O19,O20,O22,O26,O28,O30,O32,O34,O36,O38,O55,O62,O68,O45</v>
       </c>
       <c r="N51" t="str" cm="1">
         <f t="array" ref="N51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(N2:N50,N2:N50&lt;&gt;"")))</f>
@@ -9014,7 +9337,7 @@
       </c>
       <c r="O51" t="str" cm="1">
         <f t="array" ref="O51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(O2:O50,O2:O50&lt;&gt;"")))</f>
-        <v>O1,O4,O7,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O39,O55</v>
+        <v>O1,O4,O7,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O39,O55,O44,O45</v>
       </c>
       <c r="P51" t="str" cm="1">
         <f t="array" ref="P51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(P2:P50,P2:P50&lt;&gt;"")))</f>
@@ -9034,11 +9357,11 @@
       </c>
       <c r="T51" t="str" cm="1">
         <f t="array" ref="T51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(T2:T50,T2:T50&lt;&gt;"")))</f>
-        <v>O2,O5,O8,O9,O65,O15,O18,O20,O22,O26,O28,O30,O33,O34,O53,O40,O55</v>
+        <v>O2,O5,O8,O9,O65,O15,O18,O20,O22,O26,O28,O30,O33,O34,O53,O40,O55,O44,O45</v>
       </c>
       <c r="U51" t="str" cm="1">
         <f t="array" ref="U51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(U2:U50,U2:U50&lt;&gt;"")))</f>
-        <v>O2,O4,O7,O11,O16,O20,O22,O26,O29,O31,O33,O34,O37,O39,O55</v>
+        <v>O2,O4,O7,O11,O16,O20,O22,O26,O29,O31,O33,O34,O37,O39,O55,O44,O45</v>
       </c>
       <c r="V51" t="str" cm="1">
         <f t="array" ref="V51">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER(V2:V50,V2:V50&lt;&gt;"")))</f>
@@ -9065,160 +9388,289 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="2">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="3">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>538</v>
       </c>
       <c r="B1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>540</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="F2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>537</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="F3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>541</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>542</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="F5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>543</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="F6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>544</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="F7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>545</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="F8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>546</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="F9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>547</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="F10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>548</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="F11" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>549</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>550</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" t="s">
+        <v>732</v>
+      </c>
+      <c r="F13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>551</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>552</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>553</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>604</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>554</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>605</v>
       </c>
     </row>
@@ -9226,7 +9678,7 @@
       <c r="A18" t="s">
         <v>555</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9234,7 +9686,7 @@
       <c r="A19" t="s">
         <v>556</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>607</v>
       </c>
     </row>
@@ -9242,7 +9694,7 @@
       <c r="A20" t="s">
         <v>557</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9250,7 +9702,7 @@
       <c r="A21" t="s">
         <v>558</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>609</v>
       </c>
     </row>
@@ -9258,7 +9710,7 @@
       <c r="A22" t="s">
         <v>559</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>610</v>
       </c>
     </row>
@@ -9266,7 +9718,7 @@
       <c r="A23" t="s">
         <v>560</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>611</v>
       </c>
     </row>
@@ -9274,7 +9726,7 @@
       <c r="A24" t="s">
         <v>561</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>612</v>
       </c>
     </row>
@@ -9282,7 +9734,7 @@
       <c r="A25" t="s">
         <v>562</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>613</v>
       </c>
     </row>
@@ -9290,7 +9742,7 @@
       <c r="A26" t="s">
         <v>563</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>614</v>
       </c>
     </row>
@@ -9298,7 +9750,7 @@
       <c r="A27" t="s">
         <v>564</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>615</v>
       </c>
     </row>
@@ -9306,7 +9758,7 @@
       <c r="A28" t="s">
         <v>565</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>616</v>
       </c>
     </row>
@@ -9314,7 +9766,7 @@
       <c r="A29" t="s">
         <v>566</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9322,7 +9774,7 @@
       <c r="A30" t="s">
         <v>567</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>618</v>
       </c>
     </row>
@@ -9330,7 +9782,7 @@
       <c r="A31" t="s">
         <v>568</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>619</v>
       </c>
     </row>
@@ -9338,7 +9790,7 @@
       <c r="A32" t="s">
         <v>569</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>620</v>
       </c>
     </row>
@@ -9346,7 +9798,7 @@
       <c r="A33" t="s">
         <v>570</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9354,7 +9806,7 @@
       <c r="A34" t="s">
         <v>571</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>622</v>
       </c>
     </row>
@@ -9362,7 +9814,7 @@
       <c r="A35" t="s">
         <v>574</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>623</v>
       </c>
     </row>
@@ -9370,7 +9822,7 @@
       <c r="A36" t="s">
         <v>575</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>624</v>
       </c>
     </row>
@@ -9378,7 +9830,7 @@
       <c r="A37" t="s">
         <v>576</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>625</v>
       </c>
     </row>
@@ -9386,7 +9838,7 @@
       <c r="A38" t="s">
         <v>577</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>626</v>
       </c>
     </row>
@@ -9394,7 +9846,7 @@
       <c r="A39" t="s">
         <v>578</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>629</v>
       </c>
     </row>
@@ -9402,7 +9854,7 @@
       <c r="A40" t="s">
         <v>579</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>627</v>
       </c>
     </row>
@@ -9410,7 +9862,7 @@
       <c r="A41" t="s">
         <v>580</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>628</v>
       </c>
     </row>
@@ -9418,7 +9870,7 @@
       <c r="A42" t="s">
         <v>581</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9426,7 +9878,7 @@
       <c r="A43" t="s">
         <v>582</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>631</v>
       </c>
     </row>
@@ -9434,7 +9886,7 @@
       <c r="A44" t="s">
         <v>583</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="9" t="s">
         <v>668</v>
       </c>
     </row>
@@ -9442,7 +9894,7 @@
       <c r="A45" t="s">
         <v>584</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>636</v>
       </c>
     </row>
@@ -9450,7 +9902,7 @@
       <c r="A46" t="s">
         <v>585</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>637</v>
       </c>
     </row>
@@ -9458,15 +9910,15 @@
       <c r="A47" t="s">
         <v>586</v>
       </c>
-      <c r="B47" t="s">
-        <v>692</v>
+      <c r="B47" s="9" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>587</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>638</v>
       </c>
     </row>
@@ -9474,7 +9926,7 @@
       <c r="A49" t="s">
         <v>588</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>640</v>
       </c>
     </row>
@@ -9482,7 +9934,7 @@
       <c r="A50" t="s">
         <v>632</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="9" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9490,7 +9942,7 @@
       <c r="A51" t="s">
         <v>633</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>642</v>
       </c>
     </row>
@@ -9498,7 +9950,7 @@
       <c r="A52" t="s">
         <v>634</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>643</v>
       </c>
     </row>
@@ -9506,7 +9958,7 @@
       <c r="A53" t="s">
         <v>635</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>649</v>
       </c>
     </row>
@@ -9514,7 +9966,7 @@
       <c r="A54" t="s">
         <v>644</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -9522,7 +9974,7 @@
       <c r="A55" t="s">
         <v>645</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>651</v>
       </c>
     </row>
@@ -9530,7 +9982,7 @@
       <c r="A56" t="s">
         <v>646</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>652</v>
       </c>
     </row>
@@ -9538,7 +9990,7 @@
       <c r="A57" t="s">
         <v>647</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>660</v>
       </c>
     </row>
@@ -9546,7 +9998,7 @@
       <c r="A58" t="s">
         <v>648</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="13" t="s">
         <v>661</v>
       </c>
     </row>
@@ -9554,7 +10006,7 @@
       <c r="A59" t="s">
         <v>653</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="9" t="s">
         <v>662</v>
       </c>
     </row>
@@ -9562,7 +10014,7 @@
       <c r="A60" t="s">
         <v>654</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="13" t="s">
         <v>663</v>
       </c>
     </row>
@@ -9570,7 +10022,7 @@
       <c r="A61" t="s">
         <v>655</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
         <v>665</v>
       </c>
     </row>
@@ -9578,7 +10030,7 @@
       <c r="A62" t="s">
         <v>656</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>666</v>
       </c>
     </row>
@@ -9586,7 +10038,7 @@
       <c r="A63" t="s">
         <v>657</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="9" t="s">
         <v>669</v>
       </c>
     </row>
@@ -9594,7 +10046,7 @@
       <c r="A64" t="s">
         <v>658</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="9" t="s">
         <v>670</v>
       </c>
     </row>
@@ -9602,7 +10054,7 @@
       <c r="A65" t="s">
         <v>659</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>676</v>
       </c>
     </row>
@@ -9610,15 +10062,15 @@
       <c r="A66" t="s">
         <v>671</v>
       </c>
-      <c r="B66" t="s">
-        <v>699</v>
+      <c r="B66" s="9" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>672</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>677</v>
       </c>
     </row>
@@ -9626,7 +10078,7 @@
       <c r="A68" t="s">
         <v>673</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="10" t="s">
         <v>679</v>
       </c>
     </row>
@@ -9634,7 +10086,7 @@
       <c r="A69" t="s">
         <v>674</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="9" t="s">
         <v>681</v>
       </c>
     </row>
@@ -9642,83 +10094,1315 @@
       <c r="A70" t="s">
         <v>675</v>
       </c>
-      <c r="B70" t="s">
-        <v>693</v>
+      <c r="B70" s="9" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>682</v>
       </c>
-      <c r="B71" t="s">
-        <v>694</v>
+      <c r="B71" s="12" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>683</v>
       </c>
-      <c r="B72" t="s">
-        <v>695</v>
+      <c r="B72" s="12" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>684</v>
       </c>
-      <c r="B73" t="s">
-        <v>696</v>
+      <c r="B73" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>685</v>
       </c>
-      <c r="B74" t="s">
-        <v>697</v>
+      <c r="B74" s="6" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>686</v>
       </c>
-      <c r="B75" t="s">
-        <v>698</v>
+      <c r="B75" s="6" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>687</v>
       </c>
-      <c r="B76" t="s">
-        <v>700</v>
+      <c r="B76" s="13" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>688</v>
       </c>
-      <c r="B77" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>691</v>
+      <c r="B77" s="12" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8924D6-3533-4AFC-98C2-1287BC453D4C}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" t="s">
+        <v>719</v>
+      </c>
+      <c r="K1" t="s">
+        <v>721</v>
+      </c>
+      <c r="L1" t="s">
+        <v>735</v>
+      </c>
+      <c r="M1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B2,D2,F2,J2)</f>
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2,E2,G2,K2)</f>
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <f>SUM(H2,I2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L25" si="0">SUM(B3,D3,F3,J3)</f>
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M25" si="1">SUM(C3,E3,G3,K3)</f>
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N25" si="2">SUM(H3,I3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>753</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>754</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>755</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>756</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>757</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>759</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>760</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>761</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>762</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>763</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>764</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>765</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>766</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>536</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B2:B25)</f>
+        <v>157</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:K26" si="3">SUM(C2:C25)</f>
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="4">SUM(L2:L25)</f>
+        <v>256</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="5">SUM(M2:M25)</f>
+        <v>168</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26" si="6">SUM(N2:N25)</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF29CBC-8322-4377-ABDF-63CA6D25EE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4211A534-CFC6-4632-8E38-D576ED287286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -3011,9 +3011,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0099CC"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FF0099CC"/>
       <color rgb="FFFF6699"/>
       <color rgb="FFFF9999"/>
       <color rgb="FF66FF66"/>
@@ -6946,8 +6946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,7 +9391,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10165,7 +10165,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10207,13 +10207,13 @@
       <c r="K1" t="s">
         <v>721</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="16" t="s">
         <v>737</v>
       </c>
     </row>

--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4211A534-CFC6-4632-8E38-D576ED287286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D0FF4-096D-4145-A1D9-97F780B81E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -9396,7 +9396,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>

--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D0FF4-096D-4145-A1D9-97F780B81E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC1E51D-0180-4EF6-9706-BECD019ADF00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
     <sheet name="Open Coding" sheetId="3" r:id="rId2"/>
-    <sheet name="Codes" sheetId="4" r:id="rId3"/>
-    <sheet name="Full Coding" sheetId="5" r:id="rId4"/>
+    <sheet name="Open Code Analysis Help" sheetId="6" r:id="rId3"/>
+    <sheet name="Codes" sheetId="4" r:id="rId4"/>
+    <sheet name="Full Coding" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="770">
   <si>
     <t>Would you consider yourself tech-literate (i.e. comfortable using technology and understanding technical terms such as IP address)?</t>
   </si>
@@ -1963,9 +1964,6 @@
     <t>Understood device number decrease</t>
   </si>
   <si>
-    <t>Misunderstood device number increase - thought safety</t>
-  </si>
-  <si>
     <t>O49</t>
   </si>
   <si>
@@ -2369,6 +2367,18 @@
   </si>
   <si>
     <t>Participant 24</t>
+  </si>
+  <si>
+    <t>Open Codes</t>
+  </si>
+  <si>
+    <t>Misunderstood device number decrease - thought safety</t>
+  </si>
+  <si>
+    <t>Tech-Literate</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -2782,7 +2792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2897,6 +2907,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2942,7 +2967,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2962,6 +2987,9 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6946,7 +6974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -7443,19 +7471,19 @@
         <v>550</v>
       </c>
       <c r="J9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q9" t="s">
         <v>586</v>
       </c>
       <c r="T9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="V9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7640,10 +7668,10 @@
         <v>603</v>
       </c>
       <c r="C16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F16" t="s">
         <v>587</v>
@@ -7804,13 +7832,13 @@
         <v>555</v>
       </c>
       <c r="J20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K20" t="s">
         <v>583</v>
       </c>
       <c r="Q20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -8162,13 +8190,13 @@
         <v>562</v>
       </c>
       <c r="C28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G28" t="s">
         <v>551</v>
@@ -8177,13 +8205,13 @@
         <v>551</v>
       </c>
       <c r="R28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="X28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -8339,22 +8367,22 @@
         <v>563</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G34" t="s">
         <v>563</v>
       </c>
       <c r="J34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -8710,11 +8738,11 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
@@ -8731,7 +8759,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -8797,7 +8825,7 @@
         <v>571</v>
       </c>
       <c r="S43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T43" t="s">
         <v>571</v>
@@ -8874,7 +8902,7 @@
         <v>574</v>
       </c>
       <c r="S44" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T44" t="s">
         <v>574</v>
@@ -8903,34 +8931,34 @@
         <v>577</v>
       </c>
       <c r="C45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D45" t="s">
         <v>576</v>
       </c>
       <c r="E45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F45" t="s">
         <v>576</v>
       </c>
       <c r="G45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J45" t="s">
         <v>576</v>
       </c>
       <c r="K45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M45" t="s">
         <v>576</v>
@@ -8939,10 +8967,10 @@
         <v>577</v>
       </c>
       <c r="O45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q45" t="s">
         <v>576</v>
@@ -8954,22 +8982,22 @@
         <v>577</v>
       </c>
       <c r="T45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U45" t="s">
         <v>577</v>
       </c>
       <c r="V45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="X45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Y45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -9057,73 +9085,73 @@
         <v>582</v>
       </c>
       <c r="C47" t="s">
+        <v>644</v>
+      </c>
+      <c r="D47" t="s">
         <v>645</v>
       </c>
-      <c r="D47" t="s">
-        <v>646</v>
-      </c>
       <c r="E47" t="s">
+        <v>644</v>
+      </c>
+      <c r="F47" t="s">
         <v>645</v>
       </c>
-      <c r="F47" t="s">
-        <v>646</v>
-      </c>
       <c r="G47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L47" t="s">
+        <v>644</v>
+      </c>
+      <c r="M47" t="s">
         <v>645</v>
       </c>
-      <c r="M47" t="s">
-        <v>646</v>
-      </c>
       <c r="N47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="S47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="V47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="X47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Y47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -9163,28 +9191,28 @@
         <v>583</v>
       </c>
       <c r="C49" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D49" t="s">
         <v>584</v>
       </c>
       <c r="E49" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H49" t="s">
         <v>583</v>
       </c>
       <c r="I49" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J49" t="s">
         <v>583</v>
       </c>
       <c r="K49" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N49" t="s">
         <v>583</v>
@@ -9193,7 +9221,7 @@
         <v>584</v>
       </c>
       <c r="Q49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S49" t="s">
         <v>583</v>
@@ -9205,7 +9233,7 @@
         <v>584</v>
       </c>
       <c r="V49" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W49" t="s">
         <v>584</v>
@@ -9225,16 +9253,16 @@
         <v>584</v>
       </c>
       <c r="C50" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D50" t="s">
         <v>585</v>
       </c>
       <c r="E50" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G50" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H50" t="s">
         <v>585</v>
@@ -9243,25 +9271,25 @@
         <v>585</v>
       </c>
       <c r="L50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M50" t="s">
         <v>585</v>
       </c>
       <c r="N50" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O50" t="s">
         <v>585</v>
       </c>
       <c r="P50" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R50" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T50" t="s">
         <v>585</v>
@@ -9387,11 +9415,1137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1331F00-DFC4-4A87-ABBB-99ABB069364E}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="98.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B25">TRANSPOSE('Open Coding'!B51:Y51)</f>
+        <v>O1,O4,O7,Q10,O12,O13,O14,O15,O17,O18,O20,O22,O24,O25,O26,O28,O30,O33,O34,O37,O40,O42,O43,O44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="18">
+        <f>IF(ISNUMBER(SEARCH(D$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <f t="shared" ref="E2:K17" si="0">IF(ISNUMBER(SEARCH(I$1,$B2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM(D2:J2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" t="str">
+        <v>O1,O4,O8,O9,O46,O13,O47,O15,O48,O18,O20,O22,O49,O50,O26,O29,O30,O51,O33,O34,O53,O38,O54,O56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="18">
+        <f t="shared" ref="D3:K25" si="1">IF(ISNUMBER(SEARCH(D$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K25" si="2">SUM(D3:J3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" t="str">
+        <v>O2,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O36,O38,O55,O44,O45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" t="str">
+        <v>O2,O5,O8,O9,O57,O16,O17,O18,O20,O22,O58,O59,O26,O28,O30,O33,O34,O53,O38,O54,O56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B5)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B5)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B5)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B5)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" t="str">
+        <v>O2,O4,O7,O9,O47,O15,O18,O20,O22,O49,O58,O50,O26,O28,O30,O33,O34,O36,O38,O55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B6)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B6)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B6)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B6)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" t="str">
+        <v>O1,O4,O7,O11,O12,O15,O18,O20,O22,O13,O25,O26,O28,O30,O31,O32,O34,O52,O40,O55,O60,O61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B7)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B7)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B7)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B7)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" t="str">
+        <v>O1,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O55,O43,O45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B8)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B8)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B8)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B8)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" t="str">
+        <v>O2,O5,O8,O9,O16,O18,O20,O22,O26,O28,O31,O32,O34,O53,O40,O55,O62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B9)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B9)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B9)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B9)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" t="str">
+        <v>O1,O4,O7,O9,O63,O16,O64,O18,O20,O22,O13,O26,O28,O31,O32,O34,O36,O38,O55,O43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B10)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B10)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B10)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B10)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B11" t="str">
+        <v>O1,O4,O7,O9,O65,O47,O15,O43,O18,O20,O22,O50,O66,O26,O28,O30,O33,O34,O53,O40,O55,O62,O45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B11)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B11)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B11)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B11)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" t="str">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O54,O67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B12)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B12)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B12)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B12)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B13" t="str">
+        <v>O1,O5,O8,O9,O15,O19,O20,O22,O26,O28,O30,O32,O34,O36,O38,O55,O62,O68,O45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B13)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B13)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B13)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B13)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B14" t="str">
+        <v>O1,O4,O7,O9,O16,O20,O22,O26,O28,O30,O33,O34,O37,O39,O55,O43,O56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B14)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B14)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B14)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B14)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="str">
+        <v>O1,O4,O7,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B15)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B15)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B15)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B15)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" t="str">
+        <v>O2,O5,O8,O10,O15,O18,O20,O22,O26,O28,O30,O32,O34,O53,O38,O55,O59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B16)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B16)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B16)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B16)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B17" t="str">
+        <v>O1,O4,O7,O9,O46,O16,O69,O19,O20,O22,O26,O29,O30,O33,O34,O36,O38,O55,O65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B17)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B17)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B17)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B17)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" t="str">
+        <v>O2,O5,O7,O10,O16,O18,O20,O22,O70,O26,O28,O31,O71,O33,O34,O36,O40,O55,O72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B18)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B18)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B18)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B18)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>759</v>
+      </c>
+      <c r="B19" t="str">
+        <v>O2,O4,O7,O9,O15,O19,O20,O22,O26,O28,O30,O73,O74,O37,O39,O55,O43,O67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B19)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B19)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B19)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B19)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>760</v>
+      </c>
+      <c r="B20" t="str">
+        <v>O2,O5,O8,O9,O65,O15,O18,O20,O22,O26,O28,O30,O33,O34,O53,O40,O55,O44,O45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B20)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B20)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B20)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B20)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B21" t="str">
+        <v>O2,O4,O7,O11,O16,O20,O22,O26,O29,O31,O33,O34,O37,O39,O55,O44,O45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B21)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B21)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B21)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B21)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>762</v>
+      </c>
+      <c r="B22" t="str">
+        <v>O1,O4,O7,O11,O65,O15,O18,O20,O22,O26,O28,O31,O33,O34,O53,O38,O55,O75,O43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B22)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B22)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B22)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B22)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>763</v>
+      </c>
+      <c r="B23" t="str">
+        <v>O1,O5,O8,O10,O16,O19,O20,O23,O27,O29,O31,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B23)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B23)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B23)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B23)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>764</v>
+      </c>
+      <c r="B24" t="str">
+        <v>O2,O5,O8,O9,O47,O15,O18,O20,O22,O76,O26,O28,O30,O33,O34,O53,O38,O55,O44,O45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B24)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B24)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B24)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B24)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>765</v>
+      </c>
+      <c r="B25" t="str">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O76,O26,O28,O30,O32,O34,O53,O38,O54,O44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B25)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B25)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B25)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f>IF(ISNUMBER(SEARCH(H$1,$B25)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>769</v>
+      </c>
+      <c r="D26" s="18">
+        <f>SUM(D2:D25)</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="18">
+        <f>SUM(E2:E25)</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="19">
+        <f>SUM(F2:F25)</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="19">
+        <f>SUM(G2:G25)</f>
+        <v>6</v>
+      </c>
+      <c r="H26" s="17">
+        <f>SUM(H2:H25)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" ref="E26:J26" si="3">SUM(I2:I25)</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K2:K25)</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9411,13 +10565,13 @@
         <v>539</v>
       </c>
       <c r="D1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1" t="s">
         <v>699</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>700</v>
-      </c>
-      <c r="F1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9428,13 +10582,13 @@
         <v>572</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,13 +10599,13 @@
         <v>573</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9462,13 +10616,13 @@
         <v>589</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9479,13 +10633,13 @@
         <v>593</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9496,10 +10650,10 @@
         <v>594</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F6" t="s">
         <v>540</v>
@@ -9513,13 +10667,13 @@
         <v>590</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9530,13 +10684,13 @@
         <v>591</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9547,13 +10701,13 @@
         <v>592</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9564,13 +10718,13 @@
         <v>596</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9581,13 +10735,13 @@
         <v>597</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9606,13 +10760,13 @@
         <v>600</v>
       </c>
       <c r="D13" t="s">
+        <v>730</v>
+      </c>
+      <c r="E13" t="s">
         <v>731</v>
       </c>
-      <c r="E13" t="s">
-        <v>732</v>
-      </c>
       <c r="F13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9623,13 +10777,13 @@
         <v>601</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9640,13 +10794,13 @@
         <v>602</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9657,13 +10811,13 @@
         <v>604</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>738</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9879,7 +11033,7 @@
         <v>582</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>631</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -9887,7 +11041,7 @@
         <v>583</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9895,7 +11049,7 @@
         <v>584</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9903,7 +11057,7 @@
         <v>585</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9911,7 +11065,7 @@
         <v>586</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -9919,7 +11073,7 @@
         <v>587</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -9927,231 +11081,231 @@
         <v>588</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -10160,7 +11314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8924D6-3533-4AFC-98C2-1287BC453D4C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -10175,51 +11329,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" t="s">
         <v>702</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>703</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>704</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>705</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>706</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>707</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>708</v>
       </c>
-      <c r="I1" t="s">
-        <v>709</v>
-      </c>
       <c r="J1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>736</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -10266,7 +11420,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -10313,7 +11467,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -10360,7 +11514,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -10407,7 +11561,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -10454,7 +11608,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -10501,7 +11655,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -10548,7 +11702,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -10595,7 +11749,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -10642,7 +11796,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -10689,7 +11843,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -10736,7 +11890,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -10783,7 +11937,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -10830,7 +11984,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -10877,7 +12031,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -10924,7 +12078,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -10971,7 +12125,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -11018,7 +12172,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -11065,7 +12219,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -11112,7 +12266,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -11159,7 +12313,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -11206,7 +12360,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -11253,7 +12407,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -11300,7 +12454,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B25">
         <v>8</v>

--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC1E51D-0180-4EF6-9706-BECD019ADF00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE210E-057F-4200-A4D6-E5E04A383175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
     <sheet name="Open Coding" sheetId="3" r:id="rId2"/>
-    <sheet name="Open Code Analysis Help" sheetId="6" r:id="rId3"/>
-    <sheet name="Codes" sheetId="4" r:id="rId4"/>
-    <sheet name="Full Coding" sheetId="5" r:id="rId5"/>
+    <sheet name="Open Code Analysis Negative" sheetId="6" r:id="rId3"/>
+    <sheet name="Open Code Analysis Feedback" sheetId="8" r:id="rId4"/>
+    <sheet name="Codes" sheetId="4" r:id="rId5"/>
+    <sheet name="Full Coding" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="770">
   <si>
     <t>Would you consider yourself tech-literate (i.e. comfortable using technology and understanding technical terms such as IP address)?</t>
   </si>
@@ -2527,7 +2528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2791,6 +2792,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2967,7 +2974,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2990,6 +2997,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3039,11 +3048,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FF0099CC"/>
       <color rgb="FFFF5050"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF6699"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
@@ -9419,7 +9428,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9496,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="17">
-        <f t="shared" ref="E2:K17" si="0">IF(ISNUMBER(SEARCH(I$1,$B2)),1,0)</f>
+        <f t="shared" ref="I2:J17" si="0">IF(ISNUMBER(SEARCH(I$1,$B2)),1,0)</f>
         <v>0</v>
       </c>
       <c r="J2" s="17">
@@ -9519,23 +9528,23 @@
         <v>42</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:K25" si="1">IF(ISNUMBER(SEARCH(D$1,$B3)),1,0)</f>
+        <f t="shared" ref="D3:J25" si="1">IF(ISNUMBER(SEARCH(D$1,$B3)),1,0)</f>
         <v>0</v>
       </c>
       <c r="E3" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B3)),1,0)</f>
+        <f t="shared" ref="E3:H25" si="2">IF(ISNUMBER(SEARCH(E$1,$B3)),1,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B3)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G3" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B3)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B3)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -9547,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K25" si="2">SUM(D3:J3)</f>
+        <f t="shared" ref="K3:K25" si="3">SUM(D3:J3)</f>
         <v>1</v>
       </c>
     </row>
@@ -9566,19 +9575,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B4)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B4)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B4)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B4)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="17">
@@ -9590,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9609,19 +9618,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B5)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B5)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B5)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B5)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="17">
@@ -9633,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9652,19 +9661,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B6)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B6)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B6)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B6)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="17">
@@ -9676,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9695,19 +9704,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B7)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F7" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B7)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B7)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H7" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B7)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="17">
@@ -9719,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -9738,19 +9747,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B8)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F8" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B8)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B8)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B8)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="17">
@@ -9762,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -9781,19 +9790,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B9)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B9)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B9)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H9" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B9)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="17">
@@ -9805,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -9824,19 +9833,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B10)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B10)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B10)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B10)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="17">
@@ -9848,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9867,19 +9876,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B11)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B11)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B11)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H11" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B11)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="17">
@@ -9891,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -9910,19 +9919,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B12)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B12)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B12)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B12)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="17">
@@ -9934,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -9953,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B13)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B13)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B13)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B13)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="17">
@@ -9977,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9996,19 +10005,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B14)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B14)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G14" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B14)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B14)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="17">
@@ -10020,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -10039,19 +10048,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B15)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B15)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G15" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B15)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B15)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="17">
@@ -10063,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -10082,19 +10091,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B16)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B16)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B16)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B16)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="17">
@@ -10106,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10125,19 +10134,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B17)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B17)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B17)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B17)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="17">
@@ -10149,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10168,19 +10177,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B18)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B18)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B18)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H18" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B18)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="17">
@@ -10192,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -10211,19 +10220,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B19)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B19)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G19" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B19)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B19)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="17">
@@ -10235,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -10254,19 +10263,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B20)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B20)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B20)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H20" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B20)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="17">
@@ -10278,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -10297,19 +10306,19 @@
         <v>1</v>
       </c>
       <c r="E21" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B21)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B21)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G21" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B21)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B21)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="17">
@@ -10321,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -10340,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B22)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B22)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B22)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B22)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="17">
@@ -10364,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10383,19 +10392,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B23)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F23" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B23)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G23" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B23)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B23)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="17">
@@ -10407,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -10426,19 +10435,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B24)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B24)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B24)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B24)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="17">
@@ -10450,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10469,19 +10478,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="18">
-        <f>IF(ISNUMBER(SEARCH(E$1,$B25)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="19">
-        <f>IF(ISNUMBER(SEARCH(F$1,$B25)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f>IF(ISNUMBER(SEARCH(G$1,$B25)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="17">
-        <f>IF(ISNUMBER(SEARCH(H$1,$B25)),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="17">
@@ -10493,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10522,11 +10531,11 @@
         <v>1</v>
       </c>
       <c r="I26" s="17">
-        <f t="shared" ref="E26:J26" si="3">SUM(I2:I25)</f>
+        <f t="shared" ref="I26:J26" si="4">SUM(I2:I25)</f>
         <v>4</v>
       </c>
       <c r="J26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K26">
@@ -10541,10 +10550,723 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A72BAD9-FC3E-4CB4-99CC-7A83CDFFC165}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B25">TRANSPOSE('Open Coding'!B51:Y51)</f>
+        <v>O1,O4,O7,Q10,O12,O13,O14,O15,O17,O18,O20,O22,O24,O25,O26,O28,O30,O33,O34,O37,O40,O42,O43,O44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="20">
+        <f>IF(ISNUMBER(SEARCH(D$1,$B2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <f t="shared" ref="E2:G17" si="0">IF(ISNUMBER(SEARCH(E$1,$B2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" t="str">
+        <v>O1,O4,O8,O9,O46,O13,O47,O15,O48,O18,O20,O22,O49,O50,O26,O29,O30,O51,O33,O34,O53,O38,O54,O56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:G25" si="1">IF(ISNUMBER(SEARCH(D$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" t="str">
+        <v>O2,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O36,O38,O55,O44,O45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" t="str">
+        <v>O2,O5,O8,O9,O57,O16,O17,O18,O20,O22,O58,O59,O26,O28,O30,O33,O34,O53,O38,O54,O56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" t="str">
+        <v>O2,O4,O7,O9,O47,O15,O18,O20,O22,O49,O58,O50,O26,O28,O30,O33,O34,O36,O38,O55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" t="str">
+        <v>O1,O4,O7,O11,O12,O15,O18,O20,O22,O13,O25,O26,O28,O30,O31,O32,O34,O52,O40,O55,O60,O61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" t="str">
+        <v>O1,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O55,O43,O45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" t="str">
+        <v>O2,O5,O8,O9,O16,O18,O20,O22,O26,O28,O31,O32,O34,O53,O40,O55,O62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" t="str">
+        <v>O1,O4,O7,O9,O63,O16,O64,O18,O20,O22,O13,O26,O28,O31,O32,O34,O36,O38,O55,O43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B11" t="str">
+        <v>O1,O4,O7,O9,O65,O47,O15,O43,O18,O20,O22,O50,O66,O26,O28,O30,O33,O34,O53,O40,O55,O62,O45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" t="str">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O54,O67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B13" t="str">
+        <v>O1,O5,O8,O9,O15,O19,O20,O22,O26,O28,O30,O32,O34,O36,O38,O55,O62,O68,O45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B14" t="str">
+        <v>O1,O4,O7,O9,O16,O20,O22,O26,O28,O30,O33,O34,O37,O39,O55,O43,O56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="str">
+        <v>O1,O4,O7,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" t="str">
+        <v>O2,O5,O8,O10,O15,O18,O20,O22,O26,O28,O30,O32,O34,O53,O38,O55,O59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B17" t="str">
+        <v>O1,O4,O7,O9,O46,O16,O69,O19,O20,O22,O26,O29,O30,O33,O34,O36,O38,O55,O65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" t="str">
+        <v>O2,O5,O7,O10,O16,O18,O20,O22,O70,O26,O28,O31,O71,O33,O34,O36,O40,O55,O72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>759</v>
+      </c>
+      <c r="B19" t="str">
+        <v>O2,O4,O7,O9,O15,O19,O20,O22,O26,O28,O30,O73,O74,O37,O39,O55,O43,O67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>760</v>
+      </c>
+      <c r="B20" t="str">
+        <v>O2,O5,O8,O9,O65,O15,O18,O20,O22,O26,O28,O30,O33,O34,O53,O40,O55,O44,O45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B21" t="str">
+        <v>O2,O4,O7,O11,O16,O20,O22,O26,O29,O31,O33,O34,O37,O39,O55,O44,O45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>762</v>
+      </c>
+      <c r="B22" t="str">
+        <v>O1,O4,O7,O11,O65,O15,O18,O20,O22,O26,O28,O31,O33,O34,O53,O38,O55,O75,O43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>763</v>
+      </c>
+      <c r="B23" t="str">
+        <v>O1,O5,O8,O10,O16,O19,O20,O23,O27,O29,O31,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>764</v>
+      </c>
+      <c r="B24" t="str">
+        <v>O2,O5,O8,O9,O47,O15,O18,O20,O22,O76,O26,O28,O30,O33,O34,O53,O38,O55,O44,O45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>765</v>
+      </c>
+      <c r="B25" t="str">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O76,O26,O28,O30,O32,O34,O53,O38,O54,O44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>769</v>
+      </c>
+      <c r="D26" s="20">
+        <f>SUM(D2:D25)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="20">
+        <f>SUM(E2:E25)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" ref="E26:F26" si="2">SUM(F2:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G2:G25)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -11314,11 +12036,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8924D6-3533-4AFC-98C2-1287BC453D4C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>

--- a/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
+++ b/data/processed/Keep Your Distance - Non Contact Evaluation.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE210E-057F-4200-A4D6-E5E04A383175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5ED59-8CE4-4644-BF2C-00686287423A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView minimized="1" xWindow="1395" yWindow="810" windowWidth="14970" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
     <sheet name="Open Coding" sheetId="3" r:id="rId2"/>
     <sheet name="Open Code Analysis Negative" sheetId="6" r:id="rId3"/>
     <sheet name="Open Code Analysis Feedback" sheetId="8" r:id="rId4"/>
-    <sheet name="Codes" sheetId="4" r:id="rId5"/>
-    <sheet name="Full Coding" sheetId="5" r:id="rId6"/>
+    <sheet name="Open Code Analysis Positive" sheetId="9" r:id="rId5"/>
+    <sheet name="Codes" sheetId="4" r:id="rId6"/>
+    <sheet name="Full Coding" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="771">
   <si>
     <t>Would you consider yourself tech-literate (i.e. comfortable using technology and understanding technical terms such as IP address)?</t>
   </si>
@@ -2380,6 +2381,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Trend behaviour</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="X22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:Y41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10554,7 +10560,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11249,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" ref="E26:F26" si="2">SUM(F2:F25)</f>
+        <f t="shared" ref="F26" si="2">SUM(F2:F25)</f>
         <v>1</v>
       </c>
       <c r="G26">
@@ -11263,10 +11269,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2966DC3-771A-4FC5-B2EF-200AB58A9722}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B25">TRANSPOSE('Open Coding'!B51:Y51)</f>
+        <v>O1,O4,O7,Q10,O12,O13,O14,O15,O17,O18,O20,O22,O24,O25,O26,O28,O30,O33,O34,O37,O40,O42,O43,O44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="19">
+        <f>IF(ISNUMBER(SEARCH(D$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="19">
+        <f t="shared" ref="E2:G2" si="0">IF(ISNUMBER(SEARCH(E$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="21">
+        <f>IF(ISNUMBER(SEARCH(I$1,$B2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="21">
+        <f>IF(ISNUMBER(SEARCH(J$1,$B2)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" t="str">
+        <v>O1,O4,O8,O9,O46,O13,O47,O15,O48,O18,O20,O22,O49,O50,O26,O29,O30,O51,O33,O34,O53,O38,O54,O56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="19">
+        <f t="shared" ref="D3:G25" si="1">IF(ISNUMBER(SEARCH(D$1,$B3)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" ref="I3:J25" si="2">IF(ISNUMBER(SEARCH(I$1,$B3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" t="str">
+        <v>O2,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O36,O38,O55,O44,O45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" t="str">
+        <v>O2,O5,O8,O9,O57,O16,O17,O18,O20,O22,O58,O59,O26,O28,O30,O33,O34,O53,O38,O54,O56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" t="str">
+        <v>O2,O4,O7,O9,O47,O15,O18,O20,O22,O49,O58,O50,O26,O28,O30,O33,O34,O36,O38,O55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" t="str">
+        <v>O1,O4,O7,O11,O12,O15,O18,O20,O22,O13,O25,O26,O28,O30,O31,O32,O34,O52,O40,O55,O60,O61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" t="str">
+        <v>O1,O4,O7,O10,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O55,O43,O45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" t="str">
+        <v>O2,O5,O8,O9,O16,O18,O20,O22,O26,O28,O31,O32,O34,O53,O40,O55,O62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" t="str">
+        <v>O1,O4,O7,O9,O63,O16,O64,O18,O20,O22,O13,O26,O28,O31,O32,O34,O36,O38,O55,O43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B11" t="str">
+        <v>O1,O4,O7,O9,O65,O47,O15,O43,O18,O20,O22,O50,O66,O26,O28,O30,O33,O34,O53,O40,O55,O62,O45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" t="str">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O38,O54,O67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B13" t="str">
+        <v>O1,O5,O8,O9,O15,O19,O20,O22,O26,O28,O30,O32,O34,O36,O38,O55,O62,O68,O45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B14" t="str">
+        <v>O1,O4,O7,O9,O16,O20,O22,O26,O28,O30,O33,O34,O37,O39,O55,O43,O56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="str">
+        <v>O1,O4,O7,O9,O15,O18,O20,O22,O26,O28,O30,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" t="str">
+        <v>O2,O5,O8,O10,O15,O18,O20,O22,O26,O28,O30,O32,O34,O53,O38,O55,O59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B17" t="str">
+        <v>O1,O4,O7,O9,O46,O16,O69,O19,O20,O22,O26,O29,O30,O33,O34,O36,O38,O55,O65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" t="str">
+        <v>O2,O5,O7,O10,O16,O18,O20,O22,O70,O26,O28,O31,O71,O33,O34,O36,O40,O55,O72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>759</v>
+      </c>
+      <c r="B19" t="str">
+        <v>O2,O4,O7,O9,O15,O19,O20,O22,O26,O28,O30,O73,O74,O37,O39,O55,O43,O67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>760</v>
+      </c>
+      <c r="B20" t="str">
+        <v>O2,O5,O8,O9,O65,O15,O18,O20,O22,O26,O28,O30,O33,O34,O53,O40,O55,O44,O45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B21" t="str">
+        <v>O2,O4,O7,O11,O16,O20,O22,O26,O29,O31,O33,O34,O37,O39,O55,O44,O45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>762</v>
+      </c>
+      <c r="B22" t="str">
+        <v>O1,O4,O7,O11,O65,O15,O18,O20,O22,O26,O28,O31,O33,O34,O53,O38,O55,O75,O43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>763</v>
+      </c>
+      <c r="B23" t="str">
+        <v>O1,O5,O8,O10,O16,O19,O20,O23,O27,O29,O31,O33,O34,O52,O39,O55,O44,O45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>764</v>
+      </c>
+      <c r="B24" t="str">
+        <v>O2,O5,O8,O9,O47,O15,O18,O20,O22,O76,O26,O28,O30,O33,O34,O53,O38,O55,O44,O45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>765</v>
+      </c>
+      <c r="B25" t="str">
+        <v>O1,O5,O8,O9,O15,O18,O20,O22,O76,O26,O28,O30,O32,O34,O53,O38,O54,O44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>769</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D2:D25)</f>
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:F26" si="3">SUM(E2:E25)</f>
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I26" s="21">
+        <f>SUM(I2:I25)</f>
+        <v>6</v>
+      </c>
+      <c r="J26" s="21">
+        <f>SUM(J2:J25)</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -12036,12 +13034,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8924D6-3533-4AFC-98C2-1287BC453D4C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
